--- a/前端知识图谱.xlsx
+++ b/前端知识图谱.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangzhonghua.HS921593\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zh-skill-tree\graphical-front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE266C34-EBDB-45B8-898F-EE8001DC3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CA3CF-2542-4CF8-9811-3C0A5F490518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1875" windowWidth="22110" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="HTML" sheetId="2" r:id="rId2"/>
+    <sheet name="CSS" sheetId="3" r:id="rId3"/>
+    <sheet name="JS" sheetId="4" r:id="rId4"/>
+    <sheet name="Vue" sheetId="5" r:id="rId5"/>
+    <sheet name="React" sheetId="6" r:id="rId6"/>
+    <sheet name="TS" sheetId="7" r:id="rId7"/>
+    <sheet name="低代码" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,19 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,7 +54,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础
+（基础语法，理论基础）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包/编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可视化（2D/3D）</t>
+  </si>
+  <si>
+    <t>WebRTC</t>
+  </si>
+  <si>
+    <t>低代码</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>VR/AR</t>
+  </si>
+  <si>
     <t>标签语义化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见标签及其用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器</t>
+  </si>
+  <si>
+    <t>盒模型</t>
+  </si>
+  <si>
+    <t>布局</t>
+  </si>
+  <si>
+    <t>样式层叠和继承</t>
+  </si>
+  <si>
+    <t>响应式设计</t>
+  </si>
+  <si>
+    <t>变量和数据类型</t>
+  </si>
+  <si>
+    <t>运算符</t>
+  </si>
+  <si>
+    <t>控制流语句</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>对象和数组</t>
+  </si>
+  <si>
+    <t>DOM 操作</t>
+  </si>
+  <si>
+    <t>事件处理</t>
+  </si>
+  <si>
+    <t>AJAX 和异步编程</t>
+  </si>
+  <si>
+    <t>Vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端工程化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebAssembly</t>
+  </si>
+  <si>
+    <t>前端设计</t>
+  </si>
+  <si>
+    <t>前端性能监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端可访问性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端国际化</t>
+  </si>
+  <si>
+    <t>前端机器学习</t>
+  </si>
+  <si>
+    <t>前端区块链</t>
+  </si>
+  <si>
+    <t>JQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶
+(应用级别：框架/跨平台/规范)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶
+（工程/原理/邻域深入/扩展广度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端语音合成和识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +307,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -172,12 +373,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -186,20 +390,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,118 +688,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="8" t="s">
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="M12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="O13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="M20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="L22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="L23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="L24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -617,21 +942,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B13A99-B985-4EE6-931F-09568BE803DF}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7254D-1C8D-476B-A034-6EBABAF9DAB3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC9D9FD-6B5E-4974-BADA-9FFBED26D14B}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D22981-E72B-461D-9733-770129AA2B3D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195687D-5359-4FD3-B019-F82EB55CA5DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E042C-EF0A-4B2F-9001-CCBDE8C84803}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCD29C2-EE96-4437-8F07-2D5EAED2D535}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/前端知识图谱.xlsx
+++ b/前端知识图谱.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zh-skill-tree\graphical-front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CA3CF-2542-4CF8-9811-3C0A5F490518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC1D90-F85F-4BF3-AA91-276277359C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>uni-app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,13 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领域：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据可视化（2D/3D）</t>
-  </si>
-  <si>
     <t>WebRTC</t>
   </si>
   <si>
@@ -123,9 +112,6 @@
     <t>动画</t>
   </si>
   <si>
-    <t>VR/AR</t>
-  </si>
-  <si>
     <t>标签语义化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>破圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flutter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +203,6 @@
   </si>
   <si>
     <t>前端设计</t>
-  </si>
-  <si>
-    <t>前端性能监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前端可访问性</t>
@@ -255,6 +233,54 @@
   </si>
   <si>
     <t>前端语音合成和识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR/AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可视化（2D/3D）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域深入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破圈：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electron（node）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -316,7 +335,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +375,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,12 +446,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -390,9 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,9 +493,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,239 +786,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="M12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="O13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="M20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="L22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="N24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="L23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="L24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -944,9 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B13A99-B985-4EE6-931F-09568BE803DF}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -954,18 +1384,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -989,27 +1419,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1034,42 +1464,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/前端知识图谱.xlsx
+++ b/前端知识图谱.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zh-skill-tree\graphical-front-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\practice\zh-skill-tree\graphical-front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC1D90-F85F-4BF3-AA91-276277359C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC744D7-CFD3-40B7-B983-833F7B9C89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,82 @@
   </si>
   <si>
     <t>electron（node）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨端技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node/serverless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可视化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,6 +551,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,16 +579,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,45 +863,46 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="19"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="13" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -852,23 +929,29 @@
         <v>51</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
@@ -878,50 +961,76 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="G4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="L5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -932,14 +1041,22 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="L6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -950,14 +1067,14 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -968,14 +1085,14 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -986,14 +1103,14 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1016,18 +1133,18 @@
         <v>65</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1040,18 +1157,18 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1064,14 +1181,14 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1082,14 +1199,14 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1100,14 +1217,14 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1118,14 +1235,14 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1136,14 +1253,14 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1154,16 +1271,16 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1188,24 +1305,24 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1216,14 +1333,14 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1234,24 +1351,24 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1262,16 +1379,16 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1282,16 +1399,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1302,18 +1419,18 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1324,20 +1441,20 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1348,11 +1465,11 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1378,22 +1495,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1412,32 +1529,32 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1457,47 +1574,47 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1527,7 +1644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,7 +1672,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/前端知识图谱.xlsx
+++ b/前端知识图谱.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\practice\zh-skill-tree\graphical-front-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zh-skill-tree\graphical-front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC744D7-CFD3-40B7-B983-833F7B9C89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865DC76C-767D-4F1F-AA94-B3C804367451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +409,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -530,9 +538,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,6 +582,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,613 +871,613 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="13" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="13"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="10" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="12" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="12" t="s">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="12" t="s">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="12" t="s">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="12" t="s">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1495,22 +1503,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1529,32 +1537,32 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1574,47 +1582,47 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1631,7 +1639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1644,7 +1652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,7 +1665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,7 +1680,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
